--- a/book.xlsx
+++ b/book.xlsx
@@ -521,6 +521,9 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -534,6 +537,9 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,6 +555,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -580,6 +589,9 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
@@ -594,6 +606,9 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
@@ -608,6 +623,9 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
@@ -622,6 +640,9 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
@@ -636,6 +657,9 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
@@ -650,6 +674,9 @@
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
@@ -664,6 +691,9 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
@@ -678,6 +708,9 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
@@ -692,6 +725,9 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
@@ -706,6 +742,9 @@
       <c r="D15" t="s">
         <v>17</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
@@ -720,6 +759,9 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
@@ -734,6 +776,9 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
@@ -748,6 +793,9 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
@@ -762,6 +810,9 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
@@ -776,6 +827,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
@@ -790,6 +844,9 @@
       <c r="D21" t="s">
         <v>23</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
@@ -804,6 +861,9 @@
       <c r="D22" t="s">
         <v>24</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
@@ -818,6 +878,9 @@
       <c r="D23" t="s">
         <v>25</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
@@ -849,6 +912,9 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
@@ -863,6 +929,9 @@
       <c r="D26" t="s">
         <v>28</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
@@ -877,6 +946,9 @@
       <c r="D27" t="s">
         <v>29</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
@@ -891,6 +963,9 @@
       <c r="D28" t="s">
         <v>30</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
@@ -905,6 +980,9 @@
       <c r="D29" t="s">
         <v>31</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
@@ -919,6 +997,9 @@
       <c r="D30" t="s">
         <v>32</v>
       </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
@@ -933,6 +1014,9 @@
       <c r="D31" t="s">
         <v>33</v>
       </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
@@ -947,6 +1031,9 @@
       <c r="D32" t="s">
         <v>34</v>
       </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
@@ -961,6 +1048,9 @@
       <c r="D33" t="s">
         <v>35</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
@@ -975,6 +1065,9 @@
       <c r="D34" t="s">
         <v>36</v>
       </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
@@ -988,6 +1081,9 @@
       </c>
       <c r="D35" t="s">
         <v>37</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
